--- a/doc/外部設計/画面遷移図ver1.0.xlsx
+++ b/doc/外部設計/画面遷移図ver1.0.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9E7C79-3EF5-4023-949B-85124C212EFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D51B2-5320-4C1F-9DA4-7C9DA1451F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="お酒・食事提案ページ" sheetId="3" r:id="rId3"/>
+    <sheet name="食事・食費管理ページ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -83,6 +84,10 @@
     <rPh sb="0" eb="5">
       <t>ササキユウキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｐ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -256,6 +261,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ログイン画面</a:t>
           </a:r>
@@ -373,6 +382,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>メインページへ</a:t>
           </a:r>
@@ -434,6 +447,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>お酒・食事提案ページ</a:t>
           </a:r>
@@ -494,6 +511,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>新規登録</a:t>
@@ -568,6 +589,23 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
@@ -1196,6 +1234,829 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42887A32-905D-4C2F-9C4F-0A30BC682798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="425450"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お酒・食事提案ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218BA532-EA3D-427D-BDF8-F6ADFA824142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="425450"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お酒・食事提案ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3A83A8-DA1D-474D-8C4D-3B89338C2529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="425450"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お酒・食事提案ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48243F6C-6612-4724-A650-DF97A1A7D63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="457200"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お酒・食事提案ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DEB8A2-5B29-4F08-A5DE-DC6EDDB4EBBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="457200"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お酒・食事提案ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1E8442-2649-4862-8445-CCC7FAACA716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="457200"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>結果表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D57C0F-1E30-434C-A7E1-60699D09A5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="704850"/>
+          <a:ext cx="815975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D155AE21-ACCC-451F-9781-BD8BCA562824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1397000" y="685800"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>食事・食費管理ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F0942E-4D83-42DA-AEE4-67F028FD93B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4435475" y="666750"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カレンダーページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951034C3-BCA3-4999-87ED-D607C5F60537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7493000" y="631825"/>
+          <a:ext cx="2190750" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>結果表示ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC919FD3-F4C7-430F-8E6A-C0A8D1BC9225}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651625" y="911225"/>
+          <a:ext cx="815975" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1542,18 +2403,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +2428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1581,19 +2442,19 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +2475,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,13 +2485,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="15" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437AD3E3-DD9E-4723-9D70-F2275E0113D5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>